--- a/Coding/1_Python/Ron/Modules/openpyxl/test.xlsx
+++ b/Coding/1_Python/Ron/Modules/openpyxl/test.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="New Title" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,8 +49,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -380,7 +382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,24 +401,15 @@
         <v>4</v>
       </c>
       <c r="D1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J1" t="n">
         <v>11</v>
       </c>
     </row>
@@ -431,794 +424,419 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I4" t="n">
         <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13</v>
-      </c>
-      <c r="I5" t="n">
         <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
       <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
         <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
-      <c r="I7" t="n">
         <v>16</v>
       </c>
-      <c r="J7" t="n">
-        <v>17</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>merge_multi-line</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <v>11</v>
-      </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16</v>
-      </c>
-      <c r="I8" t="n">
         <v>17</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I9" t="n">
         <v>18</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" t="n">
         <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>merge_single_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f>SUMIF(A1:A10,A11,J1:J10)</f>
         <v/>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>43561.79870998228</v>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>CENTER</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43562.73949594546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>U</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>W</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Z</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ws1_A1</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="n">
-        <v>387</v>
-      </c>
-      <c r="H8" t="n">
-        <v>361</v>
-      </c>
-      <c r="I8" t="n">
-        <v>409</v>
-      </c>
-      <c r="J8" t="n">
-        <v>44</v>
-      </c>
-      <c r="K8" t="n">
-        <v>351</v>
-      </c>
-      <c r="L8" t="n">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>376</v>
-      </c>
-      <c r="N8" t="n">
-        <v>245</v>
-      </c>
-      <c r="O8" t="n">
-        <v>51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>380</v>
-      </c>
-      <c r="R8" t="n">
-        <v>23</v>
-      </c>
-      <c r="S8" t="n">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="n">
-        <v>122</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>203</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>243</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>29</v>
-      </c>
-      <c r="O9" t="n">
-        <v>60</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>136</v>
-      </c>
-      <c r="S9" t="n">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="n">
-        <v>212</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>243</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>244</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>30</v>
-      </c>
-      <c r="O10" t="n">
-        <v>73</v>
-      </c>
-      <c r="P10" t="n">
-        <v>156</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="n">
-        <v>160</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>117</v>
-      </c>
-      <c r="J11" t="n">
-        <v>33</v>
-      </c>
-      <c r="K11" t="n">
-        <v>155</v>
-      </c>
-      <c r="L11" t="n">
-        <v>206</v>
-      </c>
-      <c r="M11" t="n">
-        <v>125</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>160</v>
-      </c>
-      <c r="P11" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" t="n">
-        <v>316</v>
-      </c>
-      <c r="H12" t="n">
-        <v>154</v>
-      </c>
-      <c r="I12" t="n">
-        <v>212</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>30</v>
-      </c>
-      <c r="R12" t="n">
-        <v>49</v>
-      </c>
-      <c r="S12" t="n">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" t="n">
-        <v>187</v>
-      </c>
-      <c r="H13" t="n">
-        <v>125</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>108</v>
-      </c>
-      <c r="K13" t="n">
-        <v>175</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>120</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="n">
-        <v>467</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>175</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>181</v>
-      </c>
-      <c r="O14" t="n">
-        <v>31</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="n">
-        <v>281</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>108</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>181</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" t="n">
-        <v>209</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>155</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="G16" t="n">
-        <v>319</v>
-      </c>
-      <c r="H16" t="n">
-        <v>403</v>
-      </c>
-      <c r="I16" t="n">
-        <v>116</v>
-      </c>
-      <c r="J16" t="n">
-        <v>274</v>
-      </c>
-      <c r="K16" t="n">
-        <v>290</v>
-      </c>
-      <c r="L16" t="n">
-        <v>291</v>
-      </c>
-      <c r="M16" t="n">
-        <v>424</v>
-      </c>
-      <c r="N16" t="n">
-        <v>262</v>
-      </c>
-      <c r="O16" t="n">
-        <v>377</v>
-      </c>
-      <c r="P16" t="n">
-        <v>388</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>305</v>
-      </c>
-      <c r="R16" t="n">
-        <v>165</v>
-      </c>
-      <c r="S16" t="n">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K6:O9"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Coding/1_Python/Ron/Modules/openpyxl/test.xlsx
+++ b/Coding/1_Python/Ron/Modules/openpyxl/test.xlsx
@@ -647,7 +647,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43562.73949594546</v>
+        <v>43566.92225670945</v>
       </c>
     </row>
     <row r="14">
